--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -531,52 +531,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N2">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q2">
-        <v>17.79902712937359</v>
+        <v>71.586895590224</v>
       </c>
       <c r="R2">
-        <v>17.79902712937359</v>
+        <v>644.2820603120159</v>
       </c>
       <c r="S2">
-        <v>0.001774097283665754</v>
+        <v>0.0056205042208378</v>
       </c>
       <c r="T2">
-        <v>0.001774097283665754</v>
+        <v>0.0056205042208378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N3">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q3">
-        <v>0.05198487674265866</v>
+        <v>0.9119116402293332</v>
       </c>
       <c r="R3">
-        <v>0.05198487674265866</v>
+        <v>8.207204762064</v>
       </c>
       <c r="S3">
-        <v>5.181531998939965E-06</v>
+        <v>7.159694774695638E-05</v>
       </c>
       <c r="T3">
-        <v>5.181531998939965E-06</v>
+        <v>7.159694774695638E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H4">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I4">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J4">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N4">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q4">
-        <v>9554.206524102065</v>
+        <v>11921.49937113363</v>
       </c>
       <c r="R4">
-        <v>9554.206524102065</v>
+        <v>107293.4943402027</v>
       </c>
       <c r="S4">
-        <v>0.9523043994926275</v>
+        <v>0.9359930610445696</v>
       </c>
       <c r="T4">
-        <v>0.9523043994926275</v>
+        <v>0.9359930610445694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H5">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I5">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J5">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N5">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q5">
-        <v>27.90457281284176</v>
+        <v>151.8623479324063</v>
       </c>
       <c r="R5">
-        <v>27.90457281284176</v>
+        <v>1366.761131391656</v>
       </c>
       <c r="S5">
-        <v>0.002781355771261084</v>
+        <v>0.01192317337556105</v>
       </c>
       <c r="T5">
-        <v>0.002781355771261084</v>
+        <v>0.01192317337556105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H6">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I6">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J6">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N6">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q6">
-        <v>418.8548778246285</v>
+        <v>559.8684160365093</v>
       </c>
       <c r="R6">
-        <v>418.8548778246285</v>
+        <v>5038.815744328584</v>
       </c>
       <c r="S6">
-        <v>0.04174887175560908</v>
+        <v>0.04395696683733129</v>
       </c>
       <c r="T6">
-        <v>0.04174887175560908</v>
+        <v>0.04395696683733129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H7">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I7">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J7">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N7">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O7">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P7">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q7">
-        <v>1.223331985423013</v>
+        <v>7.131899230592889</v>
       </c>
       <c r="R7">
-        <v>1.223331985423013</v>
+        <v>64.18709307533599</v>
       </c>
       <c r="S7">
-        <v>0.0001219341898062933</v>
+        <v>0.0005599470321717825</v>
       </c>
       <c r="T7">
-        <v>0.0001219341898062933</v>
+        <v>0.0005599470321717825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H8">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I8">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J8">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N8">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O8">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P8">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q8">
-        <v>12.64603247863934</v>
+        <v>23.57786120052533</v>
       </c>
       <c r="R8">
-        <v>12.64603247863934</v>
+        <v>212.200750804728</v>
       </c>
       <c r="S8">
-        <v>0.001260478547868394</v>
+        <v>0.001851169369802613</v>
       </c>
       <c r="T8">
-        <v>0.001260478547868394</v>
+        <v>0.001851169369802613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H9">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I9">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J9">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N9">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O9">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P9">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q9">
-        <v>0.03693474002299928</v>
+        <v>0.3003472339902222</v>
       </c>
       <c r="R9">
-        <v>0.03693474002299928</v>
+        <v>2.703125105912</v>
       </c>
       <c r="S9">
-        <v>3.681427162924378E-06</v>
+        <v>2.358117197904489E-05</v>
       </c>
       <c r="T9">
-        <v>3.681427162924378E-06</v>
+        <v>2.358117197904489E-05</v>
       </c>
     </row>
   </sheetData>
